--- a/Project Management/OCS_Document_SIQ.xlsx
+++ b/Project Management/OCS_Document_SIQ.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="67">
   <si>
     <t>Crs-ID</t>
   </si>
@@ -164,6 +164,20 @@
   </si>
   <si>
     <t>Can supplier edit the desc ?</t>
+  </si>
+  <si>
+    <t>Features-11</t>
+  </si>
+  <si>
+    <t>Shall the system support filtering which enables clients to efficiently catogerize 
+orders within their purchase history.</t>
+  </si>
+  <si>
+    <t>Features-12</t>
+  </si>
+  <si>
+    <t>Shall the system support search functionalities to enable clients to efficiently navigate 
+and locate specific orders within their purchase history.</t>
   </si>
   <si>
     <t>Constraints</t>
@@ -1247,27 +1261,58 @@
       <c r="Z19" s="4"/>
     </row>
     <row r="20">
-      <c r="A20" s="13"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="7" t="s">
+      <c r="B20" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="C20" s="10" t="s">
         <v>51</v>
       </c>
+      <c r="D20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="9">
+        <v>45368.0</v>
+      </c>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+    </row>
+    <row r="21">
+      <c r="B21" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="C21" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E21" s="4"/>
-      <c r="F21" s="11" t="s">
-        <v>35</v>
+      <c r="F21" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="G21" s="9">
-        <v>45367.0</v>
+        <v>45369.0</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -1290,43 +1335,12 @@
       <c r="Z21" s="4"/>
     </row>
     <row r="22">
-      <c r="B22" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="10" t="s">
+      <c r="A22" s="13"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" s="9">
-        <v>45367.0</v>
-      </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-    </row>
-    <row r="23">
       <c r="B23" s="7" t="s">
         <v>55</v>
       </c>
@@ -1408,7 +1422,7 @@
         <v>60</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="11" t="s">
@@ -1448,8 +1462,8 @@
         <v>10</v>
       </c>
       <c r="E26" s="4"/>
-      <c r="F26" s="8" t="s">
-        <v>11</v>
+      <c r="F26" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="G26" s="9">
         <v>45367.0</v>
@@ -1472,15 +1486,25 @@
       <c r="W26" s="4"/>
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
     </row>
     <row r="27">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="4"/>
+      <c r="B27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="E27" s="4"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
+      <c r="F27" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="9">
+        <v>45367.0</v>
+      </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
@@ -1499,15 +1523,25 @@
       <c r="W27" s="4"/>
       <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
     </row>
     <row r="28">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="4"/>
+      <c r="B28" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="E28" s="4"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
+      <c r="F28" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="9">
+        <v>45367.0</v>
+      </c>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
@@ -1958,7 +1992,6 @@
       <c r="W44" s="4"/>
       <c r="X44" s="4"/>
       <c r="Y44" s="4"/>
-      <c r="Z44" s="4"/>
     </row>
     <row r="45">
       <c r="A45" s="4"/>
@@ -1986,7 +2019,6 @@
       <c r="W45" s="4"/>
       <c r="X45" s="4"/>
       <c r="Y45" s="4"/>
-      <c r="Z45" s="4"/>
     </row>
     <row r="46">
       <c r="A46" s="4"/>
@@ -28812,17 +28844,73 @@
       <c r="Y1003" s="4"/>
       <c r="Z1003" s="4"/>
     </row>
+    <row r="1004">
+      <c r="A1004" s="4"/>
+      <c r="B1004" s="4"/>
+      <c r="C1004" s="15"/>
+      <c r="D1004" s="4"/>
+      <c r="E1004" s="4"/>
+      <c r="F1004" s="16"/>
+      <c r="G1004" s="16"/>
+      <c r="H1004" s="4"/>
+      <c r="I1004" s="4"/>
+      <c r="J1004" s="4"/>
+      <c r="K1004" s="4"/>
+      <c r="L1004" s="4"/>
+      <c r="M1004" s="4"/>
+      <c r="N1004" s="4"/>
+      <c r="O1004" s="4"/>
+      <c r="P1004" s="4"/>
+      <c r="Q1004" s="4"/>
+      <c r="R1004" s="4"/>
+      <c r="S1004" s="4"/>
+      <c r="T1004" s="4"/>
+      <c r="U1004" s="4"/>
+      <c r="V1004" s="4"/>
+      <c r="W1004" s="4"/>
+      <c r="X1004" s="4"/>
+      <c r="Y1004" s="4"/>
+      <c r="Z1004" s="4"/>
+    </row>
+    <row r="1005">
+      <c r="A1005" s="4"/>
+      <c r="B1005" s="4"/>
+      <c r="C1005" s="15"/>
+      <c r="D1005" s="4"/>
+      <c r="E1005" s="4"/>
+      <c r="F1005" s="16"/>
+      <c r="G1005" s="16"/>
+      <c r="H1005" s="4"/>
+      <c r="I1005" s="4"/>
+      <c r="J1005" s="4"/>
+      <c r="K1005" s="4"/>
+      <c r="L1005" s="4"/>
+      <c r="M1005" s="4"/>
+      <c r="N1005" s="4"/>
+      <c r="O1005" s="4"/>
+      <c r="P1005" s="4"/>
+      <c r="Q1005" s="4"/>
+      <c r="R1005" s="4"/>
+      <c r="S1005" s="4"/>
+      <c r="T1005" s="4"/>
+      <c r="U1005" s="4"/>
+      <c r="V1005" s="4"/>
+      <c r="W1005" s="4"/>
+      <c r="X1005" s="4"/>
+      <c r="Y1005" s="4"/>
+      <c r="Z1005" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="A9:Z9"/>
-    <mergeCell ref="A10:A19"/>
+    <mergeCell ref="A10:A21"/>
     <mergeCell ref="E15:E16"/>
-    <mergeCell ref="A20:Z20"/>
-    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A22:Z22"/>
+    <mergeCell ref="A23:A28"/>
   </mergeCells>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D8 D10:D19 D21:D26">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D8 D10:D21 D23:D28">
       <formula1>"Yes,NO,Comments"</formula1>
     </dataValidation>
   </dataValidations>
